--- a/資料庫資料.xlsx
+++ b/資料庫資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5085" tabRatio="749" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5085" tabRatio="749" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="課表_課堂" sheetId="40" r:id="rId5"/>
     <sheet name="課表總覽" sheetId="35" r:id="rId6"/>
     <sheet name="科目" sheetId="7" r:id="rId7"/>
-    <sheet name="考試" sheetId="8" r:id="rId8"/>
-    <sheet name="考試_行程_清單" sheetId="9" r:id="rId9"/>
-    <sheet name="行程" sheetId="10" r:id="rId10"/>
-    <sheet name="便條_行程_清單" sheetId="11" r:id="rId11"/>
-    <sheet name="便條" sheetId="13" r:id="rId12"/>
-    <sheet name="工作表1" sheetId="41" r:id="rId13"/>
-    <sheet name="便條_提醒_清單" sheetId="12" r:id="rId14"/>
-    <sheet name="提醒" sheetId="14" r:id="rId15"/>
+    <sheet name="日子" sheetId="42" r:id="rId8"/>
+    <sheet name="考試" sheetId="8" r:id="rId9"/>
+    <sheet name="考試_行程_清單" sheetId="9" r:id="rId10"/>
+    <sheet name="行程" sheetId="10" r:id="rId11"/>
+    <sheet name="便條_行程_清單" sheetId="11" r:id="rId12"/>
+    <sheet name="便條" sheetId="13" r:id="rId13"/>
+    <sheet name="工作表1" sheetId="41" r:id="rId14"/>
+    <sheet name="便條_提醒_清單" sheetId="12" r:id="rId15"/>
+    <sheet name="提醒" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_資料庫資料.xlsx表格11" hidden="1">課表2</definedName>
@@ -59,7 +60,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="223">
   <si>
     <t>日記ID</t>
     <phoneticPr fontId="15" type="noConversion"/>
@@ -907,6 +908,86 @@
   </si>
   <si>
     <t>班費200</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>日子ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>日子名稱</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期開始</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期結束</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>光棍節</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋節</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次段考</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午節</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>運動會</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>國慶四天連假</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師節</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次模擬考</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noooo</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>約個烤肉</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>範圍：</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂了粽子</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>比自由式</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備考試</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>約同學會</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -914,9 +995,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1285,7 +1367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,6 +1390,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3248,10 +3333,146 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -3904,7 +4125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -4164,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -4352,7 +4573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -4528,7 +4749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7357,7 +7578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -7597,6 +7818,189 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="8">
+        <v>43050</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43050</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A9" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43012</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43012</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42944</v>
+      </c>
+      <c r="D4" s="8">
+        <v>42945</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43088</v>
+      </c>
+      <c r="D5" s="8">
+        <v>43089</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42885</v>
+      </c>
+      <c r="D6" s="8">
+        <v>42885</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43035</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43035</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43015</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43018</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43006</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43006</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -8074,140 +8478,4 @@
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>